--- a/uploads/excel_format/Loan Entry.xlsx
+++ b/uploads/excel_format/Loan Entry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>s.no</t>
   </si>
@@ -33,9 +33,6 @@
     <t>loan_amount</t>
   </si>
   <si>
-    <t>Total Customer</t>
-  </si>
-  <si>
     <t>profit_type</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Scheme</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -126,25 +120,28 @@
     <t>One</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
     <t>L-104</t>
   </si>
   <si>
-    <t>Fourteen</t>
-  </si>
-  <si>
-    <t>Fifteen</t>
-  </si>
-  <si>
-    <t>Sixteen</t>
-  </si>
-  <si>
     <t>L-106</t>
+  </si>
+  <si>
+    <t>Bandham</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>vasanth</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Total No of Customer</t>
   </si>
 </sst>
 </file>
@@ -491,16 +488,33 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="24" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -520,67 +534,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -588,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>100000</v>
@@ -603,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2">
         <v>12</v>
@@ -665,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>100000</v>
@@ -680,19 +694,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
       </c>
       <c r="M3">
         <v>12</v>
@@ -742,13 +753,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>100000</v>
@@ -757,19 +768,16 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
       </c>
       <c r="M4">
         <v>12</v>
